--- a/va_facility_data_2025-02-20/Tompkins County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tompkins%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tompkins County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tompkins%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc2273a4eed994e048389b41faeaef626"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6e90f73ffaa5413aad91049df8cad1cd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf95994efcacc470daf2387f110671cfa"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R92bc76354493404b90241e6b820ce26b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R63f46319ae22487aa2b5f7e6c965892e"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R72e863aecbc94e34add49e0e3b44b091"/>
   </x:sheets>
 </x:workbook>
 </file>
